--- a/DataTest/GetProductInfo.xlsx
+++ b/DataTest/GetProductInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>ProductName</t>
   </si>
@@ -209,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +416,9 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="10">
@@ -687,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -742,6 +745,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,16 +1107,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DataTest/GetProductInfo.xlsx
+++ b/DataTest/GetProductInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>ProductName</t>
   </si>
@@ -690,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -745,6 +745,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1107,16 +1191,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="51" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DataTest/GetProductInfo.xlsx
+++ b/DataTest/GetProductInfo.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t>No</t>
+  </si>
   <si>
     <t>ProductName</t>
   </si>
@@ -34,16 +37,31 @@
     <t>$185,220.00</t>
   </si>
   <si>
-    <t>[Ljava.lang.String;@42730828</t>
+    <t>pack</t>
   </si>
   <si>
     <t>Chocopie cake is a line of cakes manufactured by the company, this cake line is very popular in Vietnam. Chocopie cake brand has many kinds of products such as Banana Chocopie, Peach Chocopie, Watermelon Chocopie, Black bean milk tea Chocopie, etc. Each type of cake will have the same flavor and color according to the name.</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>pack</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Nabati</t>
+  </si>
+  <si>
+    <t>$45,600.00</t>
+  </si>
+  <si>
+    <t>Bánh Nabati Hương Phúc Bồn Tử 50g. 6.900 ₫ ; 320G Bánh Phomai (Dạng Xốp) Richeese Nabati Cheese Cream Wafer (Hộp 20 thanh x 16g).</t>
   </si>
 </sst>
 </file>
@@ -65,8 +83,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -74,13 +107,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -88,7 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,22 +122,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +144,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -157,16 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,20 +214,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,204 +236,189 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill/>
@@ -447,20 +450,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,6 +507,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +536,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,31 +566,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,251 +599,166 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,77 +1080,135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="11.8181818181818"/>
-    <col min="3" max="3" customWidth="true" width="6.18181818181818"/>
-    <col min="4" max="4" customWidth="true" width="255.636363636364"/>
+    <col min="1" max="1" style="1" width="9.0"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.2727272727273"/>
+    <col min="3" max="3" customWidth="true" style="2" width="11.8181818181818"/>
+    <col min="4" max="4" customWidth="true" style="2" width="6.18181818181818"/>
+    <col min="5" max="5" customWidth="true" style="3" width="112.909090909091"/>
+    <col min="6" max="16384" style="2" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" ht="58" customHeight="1" spans="1:11">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" ht="43.5" spans="1:11">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="4" ht="43.5" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+    <row r="5">
+      <c r="A5" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s" s="17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="6">
+      <c r="A6" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s" s="22">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
